--- a/tests/data/output/贷后报告-f16001_result.xlsx
+++ b/tests/data/output/贷后报告-f16001_result.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"unique_name":'居雪梅',"unique_id_no":'430902193707283581'}</t>
+          <t>{"unique_name":'夏莉',"unique_id_no":'620822199903139539'}</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"unique_name":'习龙',"unique_id_no":'61042419580627510X'}</t>
+          <t>{"unique_name":'商雪',"unique_id_no":'513327195412017776'}</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"unique_name":'夹磊',"unique_id_no":'630223199512196742'}</t>
+          <t>{"unique_name":'钦丹丹',"unique_id_no":'330102193410046238'}</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"unique_name":'伯鹏',"unique_id_no":'330723193505183707'}</t>
+          <t>{"unique_name":'司刚',"unique_id_no":'610104200201197286'}</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"unique_name":'辛海燕',"unique_id_no":'530402197110067231'}</t>
+          <t>{"unique_name":'门雷',"unique_id_no":'130500196404029808'}</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"unique_name":'翁桂英',"unique_id_no":'140623193205073564'}</t>
+          <t>{"unique_name":'闵斌',"unique_id_no":'320101198203025105'}</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"unique_name":'秋凤兰',"unique_id_no":'530423198805091517'}</t>
+          <t>{"unique_name":'孙桂珍',"unique_id_no":'510421197008227230'}</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"unique_name":'颜宁',"unique_id_no":'420204196208267268'}</t>
+          <t>{"unique_name":'尚玉珍',"unique_id_no":'130126198505202447'}</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"unique_name":'笪浩',"unique_id_no":'410803196712154160'}</t>
+          <t>{"unique_name":'赖娜',"unique_id_no":'411502195109241108'}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"unique_name":'侯欣',"unique_id_no":'220601193704123572'}</t>
+          <t>{"unique_name":'归璐',"unique_id_no":'320581197104093072'}</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"unique_name":'丘琳',"unique_id_no":'371324194104180318'}</t>
+          <t>{"unique_name":'潘成',"unique_id_no":'350603197410214890'}</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"unique_name":'叔丹丹',"unique_id_no":'361027198803268609'}</t>
+          <t>{"unique_name":'左宇',"unique_id_no":'330205195305278866'}</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"unique_name":'申阳',"unique_id_no":'320507194908021667'}</t>
+          <t>{"unique_name":'甘秀云',"unique_id_no":'350302199308021482'}</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"unique_name":'莘春梅',"unique_id_no":'532823197502064094'}</t>
+          <t>{"unique_name":'须强',"unique_id_no":'140421198510238010'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"unique_name":'佘文',"unique_id_no":'63012319731207851X'}</t>
+          <t>{"unique_name":'谷丽',"unique_id_no":'513321198010173501'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"unique_name":'勾海燕',"unique_id_no":'512081193311292498'}</t>
+          <t>{"unique_name":'政彬',"unique_id_no":'441602197105139210'}</t>
         </is>
       </c>
     </row>
